--- a/misc/zxiu.xlsx
+++ b/misc/zxiu.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="33000" windowHeight="19060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="5楼" sheetId="1" r:id="rId1"/>
     <sheet name="666" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>老房子</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>大众瓷砖</t>
-  </si>
-  <si>
-    <t>插线板</t>
   </si>
   <si>
     <t>厨房灯</t>
@@ -550,7 +547,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -586,6 +583,9 @@
       <c r="G2" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="H2" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -594,8 +594,17 @@
       <c r="B3" s="3">
         <v>1400</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>55</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="H3" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -614,6 +623,9 @@
       <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="H4" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -631,6 +643,9 @@
       <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="H5" s="3">
+        <v>230</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -645,9 +660,6 @@
       <c r="E6" s="3">
         <v>1000</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -659,6 +671,9 @@
       <c r="G7" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="H7" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -688,7 +703,7 @@
         <v>150</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="3">
         <v>70</v>
@@ -708,12 +723,6 @@
       </c>
       <c r="B11" s="3">
         <v>190</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -815,11 +824,11 @@
       </c>
       <c r="H24" s="3">
         <f>SUM(H2:H22)</f>
-        <v>220</v>
+        <v>820</v>
       </c>
       <c r="J24" s="3">
         <f>H24+E24+B24</f>
-        <v>38576</v>
+        <v>39176</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +955,7 @@
         <v>2500</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7">
         <v>250</v>
@@ -966,7 +975,7 @@
         <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8">
         <v>95</v>
@@ -986,7 +995,7 @@
         <v>230</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9">
         <v>240</v>
@@ -1034,7 +1043,7 @@
         <v>240</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>99</v>
@@ -1048,13 +1057,13 @@
         <v>1900</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>75</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13">
         <v>400</v>
@@ -1068,13 +1077,13 @@
         <v>1500</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14">
         <v>132</v>
@@ -1089,7 +1098,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15">
         <v>99</v>
@@ -1103,7 +1112,7 @@
         <v>3000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>25</v>
@@ -1124,7 +1133,7 @@
       </c>
       <c r="E20">
         <f>SUM(E2:E18)</f>
-        <v>7807</v>
+        <v>7832</v>
       </c>
       <c r="H20">
         <f>SUM(H2:H18)</f>
@@ -1132,7 +1141,7 @@
       </c>
       <c r="J20">
         <f>H20+D20+B20+E20</f>
-        <v>96086</v>
+        <v>96111</v>
       </c>
     </row>
   </sheetData>
